--- a/tkinter_excel_app/bid.xlsx
+++ b/tkinter_excel_app/bid.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -45,8 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -448,6 +451,122 @@
           <t>Seconds</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bid end</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>204498232262</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>204498232262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>204498232262</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>204498232262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>45218.91527777778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>175971859943</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>45218.91319444445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>175971859943</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>45218.91527777778</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tkinter_excel_app/bid.xlsx
+++ b/tkinter_excel_app/bid.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>204498232262</t>
+          <t>155821074455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,12 +472,15 @@
         <is>
           <t>5</t>
         </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>45219.5175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>204498232262</t>
+          <t>295976819357</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,82 +493,8 @@
           <t>5</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>204498232262</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>204498232262</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>45218.91527777778</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>175971859943</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>45218.91319444445</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>175971859943</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>45218.91527777778</v>
+      <c r="D3" s="1" t="n">
+        <v>45219.51712962963</v>
       </c>
     </row>
   </sheetData>

--- a/tkinter_excel_app/bid.xlsx
+++ b/tkinter_excel_app/bid.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>155821074455</t>
+          <t>394926842462</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,27 +474,7 @@
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45219.5175</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>295976819357</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>45219.51712962963</v>
+        <v>45219.66332175926</v>
       </c>
     </row>
   </sheetData>

--- a/tkinter_excel_app/bid.xlsx
+++ b/tkinter_excel_app/bid.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -457,26 +457,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>394926842462</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>£</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>45219.66332175926</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
